--- a/src/main/resources/Bosses.xlsx
+++ b/src/main/resources/Bosses.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javier.espada\Documents\Workspace\Curso Java\25-12-22\monster-battler\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E6D99BA-7602-4344-BF71-7AA3C5E3E22E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CA5B77-7202-48F2-AFD7-B6D8B5E1C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{DE6BEDBE-5C2F-470A-81BF-7765DBC8A720}"/>
   </bookViews>
@@ -35,6 +35,62 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>speed</t>
+  </si>
+  <si>
+    <t>defense</t>
+  </si>
+  <si>
+    <t>level</t>
+  </si>
+  <si>
+    <t>fireboss</t>
+  </si>
+  <si>
+    <t>fire</t>
+  </si>
+  <si>
+    <t>airboss</t>
+  </si>
+  <si>
+    <t>air</t>
+  </si>
+  <si>
+    <t>earthboss</t>
+  </si>
+  <si>
+    <t>earth</t>
+  </si>
+  <si>
+    <t>woodboss</t>
+  </si>
+  <si>
+    <t>wood</t>
+  </si>
+  <si>
+    <t>voidboss</t>
+  </si>
+  <si>
+    <t>void</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
@@ -46,12 +102,42 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -66,8 +152,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,12 +493,154 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF746459-EE5C-4DD7-800C-6DC45A8C39DB}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:G6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2">
+        <v>2</v>
+      </c>
+      <c r="E3" s="2">
+        <v>4</v>
+      </c>
+      <c r="F3" s="2">
+        <v>4</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3">
+        <v>4</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>4</v>
+      </c>
+      <c r="G5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="5">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5">
+        <v>5</v>
+      </c>
+      <c r="E6" s="5">
+        <v>5</v>
+      </c>
+      <c r="F6" s="5">
+        <v>5</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>